--- a/OMCResNet/hyperParamData.xlsx
+++ b/OMCResNet/hyperParamData.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -10901,6 +10901,228 @@
         <v>0.1719515025615692</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[8, 1, 2]</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>[False, 2, 2]</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[9, 4, 4, 8, 4]</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[9, 4, 4, 8, 2]</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[9, 16, 16, 32, 4]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[9, 16, 16, 32, 1]</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>[11, 64, 64, 128, 4]</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>[10, 64, 64, 128, 4]</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>[8, 1, 1, 2, 2]</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>[10, 1, 1, 2, 4]</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>[False, 2]</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>256</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>[5, 0.01581608884895221]</t>
+        </is>
+      </c>
+      <c r="O142" t="n">
+        <v>0.0001771686902974741</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0.1940163373947144</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>3</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[8, 3, 3]</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>[False, 4, 1]</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[8, 4, 4, 8, 4]</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[9, 4, 4, 8, 2]</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[9, 256, 256, 512, 5]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[11, 256, 256, 512, 3]</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>[9, 64, 64, 128, 2]</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>[10, 64, 64, 128, 1]</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>[8, 16, 16, 32, 2]</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>[10, 16, 16, 32, 1]</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>[False, 2]</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>8</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>[4, 0.054520488320627246]</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
+        <v>5.201908431536738e-05</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0.2001176178455353</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[8, 4, 1]</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>[False, 2, 2]</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[10, 8, 8, 16, 5]</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[10, 8, 8, 16, 1]</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[8, 256, 256, 512, 5]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[8, 256, 256, 512, 5]</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>[9, 128, 128, 256, 3]</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>[9, 128, 128, 256, 3]</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>[11, 256, 256, 512, 5]</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>[9, 256, 256, 512, 1]</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>[False, 4]</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>256</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>[5, 0.0621279807000767]</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
+        <v>0.0008873094452603595</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.1725861430168152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
